--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -323,48 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,6 +335,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,7 +661,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,10 @@
   <sheetData>
     <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="21"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -752,37 +752,37 @@
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="25" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
@@ -804,11 +804,11 @@
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6" t="s">
         <v>12</v>
@@ -859,12 +859,12 @@
       <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7">
         <v>42769</v>
       </c>
@@ -969,12 +969,12 @@
       <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="7">
         <v>42981</v>
       </c>
@@ -1031,25 +1031,25 @@
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="28">
+      <c r="C24" s="14">
         <v>14</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="27"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="28">
+      <c r="C25" s="14">
         <v>15</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="2"/>
@@ -1058,7 +1058,7 @@
         <v>32</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="27"/>
+      <c r="I25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -650,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -650,7 +650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>TÌM LINK HƯỚNG DẪN SỮ DỤNG CÔNG CỤ NUNIT</t>
+  </si>
+  <si>
+    <t>GỬI MAIL CHO THẦY</t>
+  </si>
+  <si>
+    <t>5 phút</t>
   </si>
 </sst>
 </file>
@@ -693,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P25"/>
+  <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1237,36 @@
       <c r="I25" s="15" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="15">
+        <v>16</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="15">
+        <v>17</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -705,7 +705,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1251,9 @@
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="15">
@@ -1266,7 +1268,9 @@
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ThucHanh-15SI\CNPM\Nhom-SLP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="19980" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -130,6 +135,18 @@
   </si>
   <si>
     <t>5 phút</t>
+  </si>
+  <si>
+    <t>THẢO LUẬN CHỨC NĂNG 2</t>
+  </si>
+  <si>
+    <t>30 PHÚT</t>
+  </si>
+  <si>
+    <t>LẬP TRÌNH CHỨC NĂNG 2</t>
+  </si>
+  <si>
+    <t>180 phút</t>
   </si>
 </sst>
 </file>
@@ -314,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -399,6 +416,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -410,6 +442,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -458,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P27"/>
+  <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,8 +1307,54 @@
         <v>34</v>
       </c>
     </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="33">
+        <v>18</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="33">
+        <v>19</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="33">
+        <v>20</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="37">
+        <v>42840</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E14:H14"/>

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ThucHanh-15SI\CNPM\Nhom-SLP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -147,6 +142,9 @@
   </si>
   <si>
     <t>180 phút</t>
+  </si>
+  <si>
+    <t>10 phút</t>
   </si>
 </sst>
 </file>
@@ -331,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -366,6 +364,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,19 +430,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,7 +497,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,7 +532,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P30"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +756,10 @@
   <sheetData>
     <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -891,15 +895,15 @@
     </row>
     <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -910,19 +914,19 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="31" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1"/>
@@ -935,8 +939,8 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
@@ -949,7 +953,7 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -966,11 +970,11 @@
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="3"/>
       <c r="I11" s="7" t="s">
         <v>17</v>
@@ -1045,12 +1049,12 @@
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="8">
         <v>42769</v>
       </c>
@@ -1178,12 +1182,12 @@
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="8">
         <v>42981</v>
       </c>
@@ -1246,12 +1250,12 @@
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="15" t="s">
         <v>34</v>
       </c>
@@ -1308,49 +1312,75 @@
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="33">
+      <c r="C28" s="16">
         <v>18</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="17">
         <v>42840</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="33">
+      <c r="C29" s="16">
         <v>19</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="33">
+      <c r="C30" s="16">
         <v>20</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="37">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17">
         <v>42840</v>
       </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="16">
+        <v>21</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17">
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>10 phút</t>
+  </si>
+  <si>
+    <t>Soạn thảo FILE WORD ve TRELLO</t>
   </si>
 </sst>
 </file>
@@ -370,6 +373,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,12 +438,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P32"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,10 +759,10 @@
   <sheetData>
     <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -895,15 +898,15 @@
     </row>
     <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -914,19 +917,19 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="36" t="s">
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="38" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1"/>
@@ -939,8 +942,8 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
@@ -953,7 +956,7 @@
       <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -970,11 +973,11 @@
       <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="3"/>
       <c r="I11" s="7" t="s">
         <v>17</v>
@@ -1049,12 +1052,12 @@
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="8">
         <v>42769</v>
       </c>
@@ -1182,12 +1185,12 @@
       <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="8">
         <v>42981</v>
       </c>
@@ -1250,12 +1253,12 @@
       <c r="D24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="15" t="s">
         <v>34</v>
       </c>
@@ -1318,12 +1321,12 @@
       <c r="D28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="17">
         <v>42840</v>
       </c>
@@ -1374,13 +1377,33 @@
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
+      <c r="C32" s="16">
+        <v>22</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/TienTrinhLamViec.xlsx
+++ b/TienTrinhLamViec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Nhóm S.L.P - LỚP 15SI</t>
   </si>
@@ -63,104 +63,58 @@
     <t>Anh</t>
   </si>
   <si>
-    <t>NGHIÊN CỨU VÀ PHÂN TÍCH CHỨC NĂNG PHẦN MỀM</t>
-  </si>
-  <si>
-    <t>30 phút</t>
-  </si>
-  <si>
-    <t>23/02/2017</t>
-  </si>
-  <si>
-    <t>VIẾT BÁO CÁO MÔ TẢ CHỨC NĂNG PHẦN MỀM</t>
-  </si>
-  <si>
-    <t>20 phút</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GỬI MAIL CHO THẦY </t>
-  </si>
-  <si>
-    <t>5 phút</t>
-  </si>
-  <si>
-    <t>THẢO LUẬN CÔNG CỤ CÔNG NGHỆ</t>
-  </si>
-  <si>
-    <t>30 phút</t>
-  </si>
-  <si>
-    <t>TÌM HIỂU SƠ LƯỢC VỀ C#</t>
-  </si>
-  <si>
-    <t>TÌM HIỂU SƠ LƯỢC VỀ SQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOẠN THẢO FILE WORD </t>
-  </si>
-  <si>
-    <t>20 phút</t>
-  </si>
-  <si>
-    <t>CHỈNH SỬA VÀ VIẾT BÁO CÁO TÌM HIỂU CÔNG CỤ CÔNG NGHỆ HOÀN CHỈNH</t>
-  </si>
-  <si>
-    <t>THẢO LUẬN TÌM HIỂU CÔNG CỤ QUICK TEST PRO</t>
-  </si>
-  <si>
-    <t>CHỈNH SỬA BÁO CÁO</t>
-  </si>
-  <si>
-    <t>THẢO LUẬN TÌM HIỂU CÔNG CỤ NUnit</t>
-  </si>
-  <si>
-    <t>SOẠN THẢO FILE WORD</t>
-  </si>
-  <si>
-    <t>45 phút</t>
-  </si>
-  <si>
-    <t>03/30/2017</t>
-  </si>
-  <si>
-    <t>TÌM LINK HƯỚNG DẪN SỮ DỤNG CÔNG CỤ NUNIT</t>
-  </si>
-  <si>
-    <t>GỬI MAIL CHO THẦY</t>
-  </si>
-  <si>
-    <t>5 phút</t>
-  </si>
-  <si>
-    <t>THẢO LUẬN CHỨC NĂNG 2</t>
-  </si>
-  <si>
-    <t>30 PHÚT</t>
-  </si>
-  <si>
-    <t>LẬP TRÌNH CHỨC NĂNG 2</t>
-  </si>
-  <si>
-    <t>180 phút</t>
+    <t>Đóng gói phần mềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 tiếng</t>
+  </si>
+  <si>
+    <t>Quay video up youtube</t>
+  </si>
+  <si>
+    <t>1 tiếng</t>
+  </si>
+  <si>
+    <t>29/04/2017</t>
+  </si>
+  <si>
+    <t>Soạn file word</t>
   </si>
   <si>
     <t>10 phút</t>
   </si>
   <si>
-    <t>Soạn thảo FILE WORD ve TRELLO</t>
+    <t>Soạn file excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 phút</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -263,43 +217,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -330,114 +247,111 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,10 +673,10 @@
   <sheetData>
     <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -774,14 +688,14 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="6"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -796,88 +710,88 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="13">
+      <c r="B6" s="7"/>
+      <c r="C6" s="10">
         <v>4</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -898,15 +812,15 @@
     </row>
     <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -917,19 +831,19 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="38" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1"/>
@@ -942,21 +856,21 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -966,23 +880,23 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1"/>
+      <c r="I11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -991,27 +905,23 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="5">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1019,24 +929,28 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="5">
+    <row r="13" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="17">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="G13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1044,24 +958,24 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5">
+    <row r="14" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="17">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="8">
-        <v>42769</v>
-      </c>
-      <c r="J14" s="1"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1070,25 +984,15 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8">
-        <v>42769</v>
-      </c>
-      <c r="J15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1097,25 +1001,15 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="5">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="8">
-        <v>42769</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1123,303 +1017,210 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="5">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="8">
-        <v>42769</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="5">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8">
-        <v>42769</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="5">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8">
-        <v>42769</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="8">
-        <v>42981</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="5">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8">
-        <v>42981</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="5">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8">
-        <v>42981</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="5">
-        <v>13</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8">
-        <v>42981</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="15">
-        <v>14</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="15">
-        <v>15</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="15">
-        <v>16</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="15">
-        <v>17</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="16">
-        <v>18</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="17">
-        <v>42840</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="16">
-        <v>19</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="16">
-        <v>20</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17">
-        <v>42840</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="16">
-        <v>21</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17">
-        <v>42840</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="16">
-        <v>22</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17">
-        <v>42846</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="18"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="E24:H24"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E14:H14"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:G11"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
